--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H2">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I2">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J2">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N2">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O2">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P2">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q2">
-        <v>1.116218500224778</v>
+        <v>0.3695509762983334</v>
       </c>
       <c r="R2">
-        <v>10.045966502023</v>
+        <v>3.325958786685</v>
       </c>
       <c r="S2">
-        <v>0.03665777451735747</v>
+        <v>0.02187537910384869</v>
       </c>
       <c r="T2">
-        <v>0.03665777451735747</v>
+        <v>0.02187537910384869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H3">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P3">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q3">
-        <v>0.070693831299</v>
+        <v>0.023677456257</v>
       </c>
       <c r="R3">
-        <v>0.6362444816909999</v>
+        <v>0.213097106313</v>
       </c>
       <c r="S3">
-        <v>0.00232165882128364</v>
+        <v>0.001401574789559026</v>
       </c>
       <c r="T3">
-        <v>0.00232165882128364</v>
+        <v>0.001401574789559026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H4">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N4">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q4">
-        <v>0.006296075092777778</v>
+        <v>0.004098468894</v>
       </c>
       <c r="R4">
-        <v>0.056664675835</v>
+        <v>0.036886220046</v>
       </c>
       <c r="S4">
-        <v>0.0002067696432633226</v>
+        <v>0.0002426067485996946</v>
       </c>
       <c r="T4">
-        <v>0.0002067696432633226</v>
+        <v>0.0002426067485996946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H5">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I5">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J5">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N5">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q5">
-        <v>0.3245099433787779</v>
+        <v>0.06418175677566669</v>
       </c>
       <c r="R5">
-        <v>2.920589490409</v>
+        <v>0.5776358109810001</v>
       </c>
       <c r="S5">
-        <v>0.01065724347932252</v>
+        <v>0.003799205931160328</v>
       </c>
       <c r="T5">
-        <v>0.01065724347932252</v>
+        <v>0.003799205931160328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H6">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I6">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J6">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N6">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O6">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P6">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q6">
-        <v>0.0006220401970000001</v>
+        <v>0.002707174327000001</v>
       </c>
       <c r="R6">
-        <v>0.005598361773</v>
+        <v>0.024364568943</v>
       </c>
       <c r="S6">
-        <v>2.042844593398762E-05</v>
+        <v>0.0001602497855546824</v>
       </c>
       <c r="T6">
-        <v>2.042844593398762E-05</v>
+        <v>0.0001602497855546825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.107054</v>
       </c>
       <c r="I7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N7">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O7">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P7">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q7">
-        <v>0.5588270066971112</v>
+        <v>0.5523940604677777</v>
       </c>
       <c r="R7">
-        <v>5.029443060274001</v>
+        <v>4.971546544210001</v>
       </c>
       <c r="S7">
-        <v>0.01835245913016787</v>
+        <v>0.03269868100062019</v>
       </c>
       <c r="T7">
-        <v>0.01835245913016787</v>
+        <v>0.03269868100062021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.107054</v>
       </c>
       <c r="I8">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J8">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P8">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q8">
         <v>0.03539237356199999</v>
@@ -948,10 +948,10 @@
         <v>0.318531362058</v>
       </c>
       <c r="S8">
-        <v>0.001162322295687283</v>
+        <v>0.002095033266611541</v>
       </c>
       <c r="T8">
-        <v>0.001162322295687283</v>
+        <v>0.002095033266611542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.107054</v>
       </c>
       <c r="I9">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J9">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N9">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q9">
-        <v>0.003152086081111111</v>
+        <v>0.006126272203999999</v>
       </c>
       <c r="R9">
-        <v>0.02836877473</v>
+        <v>0.055136449836</v>
       </c>
       <c r="S9">
-        <v>0.0001035177797155338</v>
+        <v>0.0003626415178177816</v>
       </c>
       <c r="T9">
-        <v>0.0001035177797155338</v>
+        <v>0.0003626415178177817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.107054</v>
       </c>
       <c r="I10">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J10">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N10">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q10">
-        <v>0.1624636397491111</v>
+        <v>0.09593702494955557</v>
       </c>
       <c r="R10">
-        <v>1.462172757742</v>
+        <v>0.8634332245460001</v>
       </c>
       <c r="S10">
-        <v>0.005335474615402642</v>
+        <v>0.005678942623527803</v>
       </c>
       <c r="T10">
-        <v>0.005335474615402642</v>
+        <v>0.005678942623527804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.107054</v>
       </c>
       <c r="I11">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J11">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N11">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O11">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P11">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q11">
-        <v>0.000311420086</v>
+        <v>0.004046605515333333</v>
       </c>
       <c r="R11">
-        <v>0.002802780774</v>
+        <v>0.036419449638</v>
       </c>
       <c r="S11">
-        <v>1.022735897180094E-05</v>
+        <v>0.0002395367226960858</v>
       </c>
       <c r="T11">
-        <v>1.022735897180094E-05</v>
+        <v>0.0002395367226960859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H12">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I12">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J12">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N12">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O12">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P12">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q12">
-        <v>0.2569829575700001</v>
+        <v>0.1743188348383334</v>
       </c>
       <c r="R12">
-        <v>2.31284661813</v>
+        <v>1.568869513545</v>
       </c>
       <c r="S12">
-        <v>0.008439587152074322</v>
+        <v>0.01031871336189168</v>
       </c>
       <c r="T12">
-        <v>0.008439587152074322</v>
+        <v>0.01031871336189168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H13">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I13">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J13">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P13">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q13">
-        <v>0.01627558569</v>
+        <v>0.011168761149</v>
       </c>
       <c r="R13">
-        <v>0.14648027121</v>
+        <v>0.100518850341</v>
       </c>
       <c r="S13">
-        <v>0.0005345071330046981</v>
+        <v>0.0006611290455838894</v>
       </c>
       <c r="T13">
-        <v>0.0005345071330046981</v>
+        <v>0.0006611290455838896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H14">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I14">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J14">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N14">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q14">
-        <v>0.00144952265</v>
+        <v>0.001933265958</v>
       </c>
       <c r="R14">
-        <v>0.01304570385</v>
+        <v>0.017399393622</v>
       </c>
       <c r="S14">
-        <v>4.760382886576614E-05</v>
+        <v>0.0001144386795116307</v>
       </c>
       <c r="T14">
-        <v>4.760382886576615E-05</v>
+        <v>0.0001144386795116308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H15">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I15">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J15">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N15">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q15">
-        <v>0.07471075331000002</v>
+        <v>0.03027481937966667</v>
       </c>
       <c r="R15">
-        <v>0.6723967797900001</v>
+        <v>0.272473374417</v>
       </c>
       <c r="S15">
-        <v>0.002453578710896109</v>
+        <v>0.001792102290905896</v>
       </c>
       <c r="T15">
-        <v>0.002453578710896109</v>
+        <v>0.001792102290905896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H16">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I16">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J16">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N16">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O16">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P16">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q16">
-        <v>0.00014321007</v>
+        <v>0.001276986139</v>
       </c>
       <c r="R16">
-        <v>0.00128889063</v>
+        <v>0.011492875251</v>
       </c>
       <c r="S16">
-        <v>4.703167393855068E-06</v>
+        <v>7.559053470997691E-05</v>
       </c>
       <c r="T16">
-        <v>4.703167393855068E-06</v>
+        <v>7.559053470997692E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H17">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I17">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J17">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N17">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O17">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P17">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q17">
-        <v>20.45328559910644</v>
+        <v>12.35221519598889</v>
       </c>
       <c r="R17">
-        <v>184.079570391958</v>
+        <v>111.1699367639</v>
       </c>
       <c r="S17">
-        <v>0.6717071357267183</v>
+        <v>0.7311829964330587</v>
       </c>
       <c r="T17">
-        <v>0.6717071357267183</v>
+        <v>0.7311829964330588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H18">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I18">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J18">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.975427</v>
       </c>
       <c r="O18">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P18">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q18">
-        <v>1.295374625454</v>
+        <v>0.79141729758</v>
       </c>
       <c r="R18">
-        <v>11.658371629086</v>
+        <v>7.12275567822</v>
       </c>
       <c r="S18">
-        <v>0.04254144768773922</v>
+        <v>0.04684753802390106</v>
       </c>
       <c r="T18">
-        <v>0.04254144768773922</v>
+        <v>0.04684753802390107</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H19">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I19">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J19">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N19">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q19">
-        <v>0.1153675754344444</v>
+        <v>0.13699103236</v>
       </c>
       <c r="R19">
-        <v>1.03830817891</v>
+        <v>1.23291929124</v>
       </c>
       <c r="S19">
-        <v>0.003788790963452456</v>
+        <v>0.008109113380567516</v>
       </c>
       <c r="T19">
-        <v>0.003788790963452457</v>
+        <v>0.008109113380567518</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H20">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I20">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J20">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N20">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q20">
-        <v>5.946232346390445</v>
+        <v>2.145270672237778</v>
       </c>
       <c r="R20">
-        <v>53.516091117514</v>
+        <v>19.30743605014001</v>
       </c>
       <c r="S20">
-        <v>0.1952804442301428</v>
+        <v>0.126988189033182</v>
       </c>
       <c r="T20">
-        <v>0.1952804442301428</v>
+        <v>0.126988189033182</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H21">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I21">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J21">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N21">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O21">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P21">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q21">
-        <v>0.011398096162</v>
+        <v>0.09048711004666668</v>
       </c>
       <c r="R21">
-        <v>0.102582865458</v>
+        <v>0.8143839904200001</v>
       </c>
       <c r="S21">
-        <v>0.0003743253126064597</v>
+        <v>0.00535633772669169</v>
       </c>
       <c r="T21">
-        <v>0.0003743253126064597</v>
+        <v>0.00535633772669169</v>
       </c>
     </row>
   </sheetData>
